--- a/Templates/Rollout-Plan-Template/SP2016_Rollout_Plan-Template.xlsx
+++ b/Templates/Rollout-Plan-Template/SP2016_Rollout_Plan-Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hassan.amjad\Desktop\Interview\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\SharePoint\Templates\Rollout-Plan-Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DB526E-FB95-41CA-A64F-8FA686D0B0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9163ED38-9889-4C2E-973B-C72086F4CC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="654" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3386,21 +3386,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071932D275E34064B95C5FFF0CDE43177" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="451a5dd72478f23c15a0a533e5f7952d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac9f37f9df739d015c7a2148408e1f9d">
     <xsd:element name="properties">
@@ -3449,29 +3434,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{383ADBD3-1D11-4CDC-BC91-722455011023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D2C5F93-8243-4BF1-A4BF-DDE8514E6E65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49D31CF7-BEE8-4A4C-964B-214A92923F8B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3484,4 +3462,26 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D2C5F93-8243-4BF1-A4BF-DDE8514E6E65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{383ADBD3-1D11-4CDC-BC91-722455011023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>